--- a/manualTestCases/ManualTestCases.xlsx
+++ b/manualTestCases/ManualTestCases.xlsx
@@ -49,7 +49,7 @@
     </r>
   </si>
   <si>
-    <t>Click New User</t>
+    <t>1. Click New User</t>
   </si>
   <si>
     <t>Redirects to user registration page</t>
